--- a/regions/10/soflis meurneoba/3. pirutkvis suladoba.xlsx
+++ b/regions/10/soflis meurneoba/3. pirutkvis suladoba.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\თბილისი\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\თბილისი\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB528B1-B79A-40F8-96E4-9BE15EF01047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="14">
   <si>
     <t>-</t>
   </si>
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -186,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -204,15 +203,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -245,19 +235,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -348,23 +338,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -400,23 +373,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -592,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -606,33 +562,34 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:23" ht="30" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1">
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="3">
         <v>2006</v>
@@ -682,13 +639,18 @@
       <c r="Q2" s="3">
         <v>2021</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="R2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2023</v>
+      </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1">
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -740,13 +702,18 @@
       <c r="Q3" s="4">
         <v>2.7</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="R3" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S3" s="4">
+        <v>3.9</v>
+      </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1">
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -798,13 +765,18 @@
       <c r="Q4" s="4">
         <v>1.5</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S4" s="4">
+        <v>3.2</v>
+      </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1">
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -856,13 +828,16 @@
       <c r="Q5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="R5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1">
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -914,13 +889,16 @@
       <c r="Q6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="R6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1">
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -972,13 +950,16 @@
       <c r="Q7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="R7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1">
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1030,13 +1011,16 @@
       <c r="Q8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="R8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1">
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1088,13 +1072,16 @@
       <c r="Q9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="R9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1">
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1146,13 +1133,16 @@
       <c r="Q10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="R10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1">
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1204,13 +1194,18 @@
       <c r="Q11" s="4">
         <v>466.7</v>
       </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="R11" s="4">
+        <v>462.4</v>
+      </c>
+      <c r="S11" s="4">
+        <v>599.79999999999995</v>
+      </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1">
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1262,55 +1257,58 @@
       <c r="Q12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="R12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="1:22" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:23" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="1:22" ht="15.75">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1332,8 +1330,9 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.75">
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1355,8 +1354,9 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="2:22" ht="15.75">
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="2:23" ht="15.75">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1378,8 +1378,9 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="2:22" ht="15.75">
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="2:23" ht="15.75">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1401,12 +1402,13 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A13:Q13"/>
     <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
